--- a/test/data/sqlite/SampleSQLite003.xlsx
+++ b/test/data/sqlite/SampleSQLite003.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoDbEE/test/data/sqlite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{E1B946C3-C2F2-E94B-881A-B68B113C4892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A568B1E4-5648-134A-90F0-6AD8607CE1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4280" yWindow="940" windowWidth="22460" windowHeight="17540" tabRatio="457" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,6 @@
     <definedName name="論理演算子">config!$J$5:$J$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="148">
   <si>
     <t>パラメータ名</t>
     <rPh sb="5" eb="6">
@@ -708,9 +707,6 @@
   </si>
   <si>
     <t>ITEMONLY</t>
-  </si>
-  <si>
-    <t>ITEMONLY</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -827,14 +823,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>order by ${ORDERBY}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-- ITEMONLY は複数カラム指定するとカンマ区切りで出力することとする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-- 値が無い場合は先頭の論理演算子ごと省略する</t>
     <rPh sb="3" eb="4">
       <t xml:space="preserve">アタイガ </t>
@@ -893,14 +881,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ORDERBY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>orderbyColumns</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Field 1 value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1098,31 +1078,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カラム名を配列で与える。parseの都合により、存在するitemをひとつ対象itemに記述しておくこと。</t>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">ハイレツ </t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t xml:space="preserve">アタエル </t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t xml:space="preserve">ショウリャクシマス。 </t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t xml:space="preserve">ツゴウ </t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t xml:space="preserve">ソンザイスル </t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t xml:space="preserve">タイショウ </t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t xml:space="preserve">キジュツ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※ 同じタグ名に対しては「条件句タイプ」「対象item」「値の型」が一致している必要があります。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1147,6 +1102,10 @@
   </si>
   <si>
     <t>SampleSQLite003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2004,8 +1963,8 @@
   </sheetPr>
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2086,7 +2045,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="22" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="15" t="s">
@@ -2104,7 +2063,7 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="15" t="s">
@@ -2122,7 +2081,7 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -2275,18 +2234,18 @@
         <v>74</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
       <c r="G18" s="53" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H18" s="54"/>
       <c r="I18" s="54"/>
@@ -2298,13 +2257,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -2414,16 +2373,16 @@
         <v>79</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>91</v>
       </c>
       <c r="G27" s="70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H27" s="70" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I27" s="21" t="s">
         <v>80</v>
@@ -2435,26 +2394,26 @@
         <v>74</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>116</v>
-      </c>
       <c r="D28" s="27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H28" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I28" s="69" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J28" s="68"/>
     </row>
@@ -2464,26 +2423,26 @@
         <v>2</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H29" s="27" t="s">
         <v>28</v>
       </c>
       <c r="I29" s="69" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J29" s="68"/>
     </row>
@@ -2493,31 +2452,31 @@
         <v>3</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F30" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H30" s="27" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="69" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J30" s="68" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2526,54 +2485,41 @@
         <v>4</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H31" s="27" t="s">
         <v>16</v>
       </c>
       <c r="I31" s="69" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J31" s="68"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="32">
-        <f>A31+1</f>
-        <v>5</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>102</v>
-      </c>
+      <c r="A32" s="32"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
-      <c r="I32" s="69" t="s">
-        <v>147</v>
-      </c>
+      <c r="I32" s="69"/>
       <c r="J32" s="68"/>
     </row>
     <row r="33" spans="1:10">
@@ -2667,7 +2613,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="37" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
@@ -2681,7 +2627,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -2695,7 +2641,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="42" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -2764,12 +2710,12 @@
     </row>
     <row r="50" spans="1:13" ht="13.5" customHeight="1">
       <c r="A50" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
       <c r="D50" s="74" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
@@ -2783,7 +2729,7 @@
     </row>
     <row r="51" spans="1:13" ht="13.5" customHeight="1">
       <c r="A51" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -2800,12 +2746,12 @@
     </row>
     <row r="52" spans="1:13" ht="13.5" customHeight="1">
       <c r="A52" s="66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
       <c r="D52" s="73" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E52" s="43"/>
       <c r="F52" s="43"/>
@@ -2819,12 +2765,12 @@
     </row>
     <row r="53" spans="1:13" ht="13.5" customHeight="1">
       <c r="A53" s="66" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
       <c r="D53" s="73" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E53" s="43"/>
       <c r="F53" s="73"/>
@@ -2838,12 +2784,12 @@
     </row>
     <row r="54" spans="1:13" ht="13.5" customHeight="1">
       <c r="A54" s="66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
       <c r="D54" s="73" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E54" s="43"/>
       <c r="F54" s="73"/>
@@ -2857,7 +2803,7 @@
     </row>
     <row r="55" spans="1:13" ht="13.5" customHeight="1">
       <c r="A55" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
@@ -2874,7 +2820,7 @@
     </row>
     <row r="56" spans="1:13" ht="13.5" customHeight="1">
       <c r="A56" s="66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56" s="43"/>
       <c r="C56" s="43"/>
@@ -2891,12 +2837,12 @@
     </row>
     <row r="57" spans="1:13" ht="13.5" customHeight="1">
       <c r="A57" s="66" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
       <c r="D57" s="73" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E57" s="43"/>
       <c r="F57" s="43"/>
@@ -2910,13 +2856,11 @@
     </row>
     <row r="58" spans="1:13" ht="13.5" customHeight="1">
       <c r="A58" s="66" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
-      <c r="D58" s="73" t="s">
-        <v>121</v>
-      </c>
+      <c r="D58" s="73"/>
       <c r="E58" s="43"/>
       <c r="F58" s="43"/>
       <c r="G58" s="60"/>
@@ -3576,7 +3520,7 @@
         <v>92</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3608,7 +3552,7 @@
         <v>85</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3640,7 +3584,7 @@
         <v>88</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3658,7 +3602,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>89</v>
@@ -3674,7 +3618,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>86</v>
@@ -3689,7 +3633,7 @@
         <v>23</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I9" s="72" t="s">
         <v>87</v>
@@ -3704,7 +3648,7 @@
         <v>24</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>90</v>
@@ -3720,7 +3664,7 @@
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:10">
